--- a/education/Percent of population age 25-34 with a postsecondary credential/HigherEdAlmanac_2020_Data.xlsx
+++ b/education/Percent of population age 25-34 with a postsecondary credential/HigherEdAlmanac_2020_Data.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\jupyter\texas_2036\indicators\education\Percent of population age 25-34 with a postsecondary credential\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6399FE4F-6BAE-4A71-874A-313A63D6ED6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12796958-957C-4EF1-B0AD-F3E192A37BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{1965F602-3F8C-4E19-9715-2DA7B6AF5C49}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{1965F602-3F8C-4E19-9715-2DA7B6AF5C49}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1 (3)" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="72">
   <si>
     <t>National**</t>
   </si>
@@ -250,6 +252,9 @@
   <si>
     <t>Associates Or Higher</t>
   </si>
+  <si>
+    <t>Associates or Higher</t>
+  </si>
 </sst>
 </file>
 
@@ -345,7 +350,49 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="28">
+    <dxf>
+      <numFmt numFmtId="10" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="10" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="10" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="10" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="10" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="10" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="10" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="10" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="10" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="10" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     </dxf>
@@ -402,29 +449,58 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{78D2C4CA-D5E7-49DC-AB24-52206B8F5B83}" name="Table1" displayName="Table1" ref="A1:Q50" totalsRowShown="0" headerRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{78D2C4CA-D5E7-49DC-AB24-52206B8F5B83}" name="Table1" displayName="Table1" ref="A1:Q50" totalsRowShown="0" headerRowDxfId="27">
   <autoFilter ref="A1:Q50" xr:uid="{78D2C4CA-D5E7-49DC-AB24-52206B8F5B83}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q50">
     <sortCondition descending="1" ref="E1:E50"/>
   </sortState>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{9FC72E0A-187E-4CA3-ABDE-54378136F128}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{B21E6E3F-6A48-46F9-8E28-23DD16432B98}" name="Column2" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{391128F3-4424-4930-B7B8-B75D3548508D}" name="Column3" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{FA42A54B-9B13-4751-A59B-D75571CADE50}" name="Column4" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{B9376DEE-6382-4CB0-9D4A-DAA2B4EFF62E}" name="Column5" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{DC182DA1-6926-41BC-AC02-C1E645A2DB42}" name="Column6" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{7218897F-B9D9-4393-93E0-79DF1E952A2B}" name="Column7" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{ACAC3880-0A0A-4922-8FC4-3BEBA68CBC41}" name="Column8" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{F3499960-F2F9-48EC-A9A4-D0A76A60A562}" name="Column9" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{F515DE57-4071-40A3-A8AF-2090F0BDF1BB}" name="Column10" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{2E7A003D-D516-44AF-93C7-615FA3CF46FC}" name="Column11" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{B21E6E3F-6A48-46F9-8E28-23DD16432B98}" name="Column2" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{391128F3-4424-4930-B7B8-B75D3548508D}" name="Column3" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{FA42A54B-9B13-4751-A59B-D75571CADE50}" name="Column4" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{B9376DEE-6382-4CB0-9D4A-DAA2B4EFF62E}" name="Column5" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{DC182DA1-6926-41BC-AC02-C1E645A2DB42}" name="Column6" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{7218897F-B9D9-4393-93E0-79DF1E952A2B}" name="Column7" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{ACAC3880-0A0A-4922-8FC4-3BEBA68CBC41}" name="Column8" dataDxfId="20"/>
+    <tableColumn id="9" xr3:uid="{F3499960-F2F9-48EC-A9A4-D0A76A60A562}" name="Column9" dataDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{F515DE57-4071-40A3-A8AF-2090F0BDF1BB}" name="Column10" dataDxfId="18"/>
+    <tableColumn id="11" xr3:uid="{2E7A003D-D516-44AF-93C7-615FA3CF46FC}" name="Column11" dataDxfId="17"/>
     <tableColumn id="12" xr3:uid="{B3FCB9CC-B205-4F31-9E65-AEEF293FC912}" name="Column12"/>
     <tableColumn id="13" xr3:uid="{879A8D5C-CFD4-46EB-907E-A8AC1AF42CFC}" name="Column13"/>
     <tableColumn id="14" xr3:uid="{A555A8BE-C84A-47A7-884A-40BA50C15698}" name="Column14"/>
-    <tableColumn id="15" xr3:uid="{4852E76C-56A7-4081-A88B-A413D1D9DFC5}" name="Column15" dataDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{068E50BE-D9B7-4071-9744-BBE1691CBC78}" name="Column16" dataDxfId="1"/>
-    <tableColumn id="17" xr3:uid="{7ABE8D20-4357-447C-BB28-94AB15F588C8}" name="Column17" dataDxfId="0"/>
+    <tableColumn id="15" xr3:uid="{4852E76C-56A7-4081-A88B-A413D1D9DFC5}" name="Column15" dataDxfId="16"/>
+    <tableColumn id="16" xr3:uid="{068E50BE-D9B7-4071-9744-BBE1691CBC78}" name="Column16" dataDxfId="15"/>
+    <tableColumn id="17" xr3:uid="{7ABE8D20-4357-447C-BB28-94AB15F588C8}" name="Column17" dataDxfId="14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4A8884AC-E38C-4315-9C0A-04583317154A}" name="Table2" displayName="Table2" ref="A1:Q52" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:Q52" xr:uid="{4A8884AC-E38C-4315-9C0A-04583317154A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q52">
+    <sortCondition descending="1" ref="E1:E52"/>
+  </sortState>
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{3A24A7F4-321A-4064-9169-8DDC3566DFB9}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{1992D644-803F-4D17-9F07-F6CD98FE66FF}" name="Column2" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{B93F6F49-38F5-4FED-844E-FEE4AA04A59D}" name="Column3" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{B770C52F-F256-4840-B646-9AC631A0FF41}" name="Column4" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{C618E791-B937-4333-8582-A0E0AB0483FE}" name="Column5" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{1E49D6F6-C81A-4289-A61E-03F81EDC3ED8}" name="Column6" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{6A2E640C-8D24-49A5-8705-8AFD97BD6A7C}" name="Column7" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{0A1AEA5F-4ABE-42D3-A8C0-A78E4987EF54}" name="Column8" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{098BF98D-2116-42BB-839E-31A0E4AF53D9}" name="Column9" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{6246D802-42B8-4CE9-812D-CB79D5C63366}" name="Column10" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{3411FBC6-443B-4A40-81B1-B9B315B20E94}" name="Column11" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{EA84BCE3-72F9-4AF7-A426-1F0491C47FE3}" name="Column12"/>
+    <tableColumn id="13" xr3:uid="{10580DEC-1D06-4947-86C6-5E180EEE13AF}" name="Column13"/>
+    <tableColumn id="14" xr3:uid="{55A042A4-9058-40F8-A61C-18EBEC142C24}" name="Column14"/>
+    <tableColumn id="15" xr3:uid="{3C0054F7-58B3-44FC-8C98-0D41EB72B4D2}" name="Column15" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{ED3583BF-36BC-4E08-9BBC-8EE30095AAE6}" name="Column16" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{6F22E7E7-36D5-412A-A833-1C6B81B6F419}" name="Column17" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -730,7 +806,7 @@
   <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3451,7 +3527,7 @@
   <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E50" sqref="A1:E50"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6123,7 +6199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F73DF66-8266-4ED9-B722-70DF2B55E046}">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -6532,4 +6608,3218 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D0802B-94D8-41F3-BC8B-3A3D858A4BB1}">
+  <dimension ref="A1:Q52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E52" sqref="A1:E52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="9" width="11" customWidth="1"/>
+    <col min="10" max="17" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.248</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.157</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="G2" s="2">
+        <v>8965</v>
+      </c>
+      <c r="H2" s="2">
+        <v>4991</v>
+      </c>
+      <c r="I2" s="2">
+        <v>12778</v>
+      </c>
+      <c r="J2" s="2">
+        <v>44384</v>
+      </c>
+      <c r="K2" s="2">
+        <v>79835</v>
+      </c>
+      <c r="L2">
+        <v>559</v>
+      </c>
+      <c r="M2">
+        <v>561</v>
+      </c>
+      <c r="N2">
+        <v>25.5</v>
+      </c>
+      <c r="O2" s="2">
+        <v>66461</v>
+      </c>
+      <c r="P2" s="2">
+        <v>96717</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1611440</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.441</v>
+      </c>
+      <c r="G3" s="2">
+        <v>7363</v>
+      </c>
+      <c r="H3" s="2">
+        <v>5381</v>
+      </c>
+      <c r="I3" s="2">
+        <v>11226</v>
+      </c>
+      <c r="J3" s="2">
+        <v>32416</v>
+      </c>
+      <c r="K3" s="2">
+        <v>70315</v>
+      </c>
+      <c r="L3">
+        <v>636</v>
+      </c>
+      <c r="M3">
+        <v>648</v>
+      </c>
+      <c r="N3">
+        <v>21.4</v>
+      </c>
+      <c r="O3" s="2">
+        <v>69517</v>
+      </c>
+      <c r="P3" s="2">
+        <v>90215</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>362868</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="G4" s="2">
+        <v>11135</v>
+      </c>
+      <c r="H4" s="2">
+        <v>5229</v>
+      </c>
+      <c r="I4" s="2">
+        <v>7938</v>
+      </c>
+      <c r="J4" s="2">
+        <v>39007</v>
+      </c>
+      <c r="K4" s="2">
+        <v>67844</v>
+      </c>
+      <c r="L4">
+        <v>531</v>
+      </c>
+      <c r="M4">
+        <v>533</v>
+      </c>
+      <c r="N4">
+        <v>24.5</v>
+      </c>
+      <c r="O4" s="2">
+        <v>74572</v>
+      </c>
+      <c r="P4" s="2">
+        <v>87753</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>2549883</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.182</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="G5" s="2">
+        <v>7018</v>
+      </c>
+      <c r="H5" s="2">
+        <v>4536</v>
+      </c>
+      <c r="I5" s="2">
+        <v>13633</v>
+      </c>
+      <c r="J5" s="2">
+        <v>36589</v>
+      </c>
+      <c r="K5" s="2">
+        <v>81740</v>
+      </c>
+      <c r="L5">
+        <v>544</v>
+      </c>
+      <c r="M5">
+        <v>545</v>
+      </c>
+      <c r="N5">
+        <v>24.2</v>
+      </c>
+      <c r="O5" s="2">
+        <v>77622</v>
+      </c>
+      <c r="P5" s="2">
+        <v>109581</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>397409</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.254</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="G6" s="2">
+        <v>3193</v>
+      </c>
+      <c r="H6" s="2">
+        <v>6414</v>
+      </c>
+      <c r="I6" s="2">
+        <v>16103</v>
+      </c>
+      <c r="J6" s="2">
+        <v>42637</v>
+      </c>
+      <c r="K6" s="2">
+        <v>60782</v>
+      </c>
+      <c r="L6">
+        <v>560</v>
+      </c>
+      <c r="M6">
+        <v>546</v>
+      </c>
+      <c r="N6">
+        <v>24.1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P6" s="2">
+        <v>80775</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>65152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="G7" s="2">
+        <v>9861</v>
+      </c>
+      <c r="H7" s="2">
+        <v>4312</v>
+      </c>
+      <c r="I7" s="2">
+        <v>12355</v>
+      </c>
+      <c r="J7" s="2">
+        <v>40410</v>
+      </c>
+      <c r="K7" s="2">
+        <v>76348</v>
+      </c>
+      <c r="L7">
+        <v>529</v>
+      </c>
+      <c r="M7">
+        <v>516</v>
+      </c>
+      <c r="N7">
+        <v>25.5</v>
+      </c>
+      <c r="O7" s="2">
+        <v>78599</v>
+      </c>
+      <c r="P7" s="2">
+        <v>100821</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>546742</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.218</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.434</v>
+      </c>
+      <c r="G8" s="2">
+        <v>4479</v>
+      </c>
+      <c r="H8" s="2">
+        <v>3638</v>
+      </c>
+      <c r="I8" s="2">
+        <v>9540</v>
+      </c>
+      <c r="J8" s="2">
+        <v>22873</v>
+      </c>
+      <c r="K8" s="2">
+        <v>71953</v>
+      </c>
+      <c r="L8">
+        <v>518</v>
+      </c>
+      <c r="M8">
+        <v>506</v>
+      </c>
+      <c r="N8">
+        <v>23.8</v>
+      </c>
+      <c r="O8" s="2">
+        <v>58603</v>
+      </c>
+      <c r="P8" s="2">
+        <v>84081</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>648782</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.219</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="G9" s="2">
+        <v>9252</v>
+      </c>
+      <c r="H9" s="2">
+        <v>3212</v>
+      </c>
+      <c r="I9" s="2">
+        <v>8188</v>
+      </c>
+      <c r="J9" s="2">
+        <v>23659</v>
+      </c>
+      <c r="K9" s="2">
+        <v>59566</v>
+      </c>
+      <c r="L9">
+        <v>628</v>
+      </c>
+      <c r="M9">
+        <v>631</v>
+      </c>
+      <c r="N9">
+        <v>20</v>
+      </c>
+      <c r="O9" s="2">
+        <v>60321</v>
+      </c>
+      <c r="P9" s="2">
+        <v>80576</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>152434</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.624</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="G10" s="2">
+        <v>14587</v>
+      </c>
+      <c r="H10" s="2">
+        <v>3891</v>
+      </c>
+      <c r="I10" s="2">
+        <v>13971</v>
+      </c>
+      <c r="J10" s="2">
+        <v>32491</v>
+      </c>
+      <c r="K10" s="2">
+        <v>65030</v>
+      </c>
+      <c r="L10">
+        <v>509</v>
+      </c>
+      <c r="M10">
+        <v>504</v>
+      </c>
+      <c r="N10">
+        <v>24.3</v>
+      </c>
+      <c r="O10" s="2">
+        <v>76177</v>
+      </c>
+      <c r="P10" s="2">
+        <v>86114</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>1086485</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="G11" s="2">
+        <v>5701</v>
+      </c>
+      <c r="H11" s="2">
+        <v>5118</v>
+      </c>
+      <c r="I11" s="2">
+        <v>12637</v>
+      </c>
+      <c r="J11" s="2">
+        <v>23014</v>
+      </c>
+      <c r="K11" s="2">
+        <v>72577</v>
+      </c>
+      <c r="L11">
+        <v>567</v>
+      </c>
+      <c r="M11">
+        <v>551</v>
+      </c>
+      <c r="N11">
+        <v>24</v>
+      </c>
+      <c r="O11" s="2">
+        <v>62651</v>
+      </c>
+      <c r="P11" s="2">
+        <v>88639</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>480050</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.433</v>
+      </c>
+      <c r="G12" s="2">
+        <v>8833</v>
+      </c>
+      <c r="H12" s="2">
+        <v>4090</v>
+      </c>
+      <c r="I12" s="2">
+        <v>9289</v>
+      </c>
+      <c r="J12" s="2">
+        <v>41859</v>
+      </c>
+      <c r="K12" s="2">
+        <v>83242</v>
+      </c>
+      <c r="L12">
+        <v>535</v>
+      </c>
+      <c r="M12">
+        <v>523</v>
+      </c>
+      <c r="N12">
+        <v>22.3</v>
+      </c>
+      <c r="O12" s="2">
+        <v>72923</v>
+      </c>
+      <c r="P12" s="2">
+        <v>89378</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>2099003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.504</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="G13" s="2">
+        <v>7941</v>
+      </c>
+      <c r="H13" s="2">
+        <v>4700</v>
+      </c>
+      <c r="I13" s="2">
+        <v>7687</v>
+      </c>
+      <c r="J13" s="2">
+        <v>15256</v>
+      </c>
+      <c r="K13" s="2">
+        <v>63837</v>
+      </c>
+      <c r="L13">
+        <v>627</v>
+      </c>
+      <c r="M13">
+        <v>636</v>
+      </c>
+      <c r="N13">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="O13" s="2">
+        <v>57263</v>
+      </c>
+      <c r="P13" s="2">
+        <v>72544</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.498</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="G14" s="2">
+        <v>7421</v>
+      </c>
+      <c r="H14" s="2">
+        <v>4078</v>
+      </c>
+      <c r="I14" s="2">
+        <v>6830</v>
+      </c>
+      <c r="J14" s="2">
+        <v>36807</v>
+      </c>
+      <c r="K14" s="2">
+        <v>74073</v>
+      </c>
+      <c r="L14">
+        <v>539</v>
+      </c>
+      <c r="M14">
+        <v>535</v>
+      </c>
+      <c r="N14">
+        <v>22.1</v>
+      </c>
+      <c r="O14" s="2">
+        <v>60661</v>
+      </c>
+      <c r="P14" s="2">
+        <v>82432</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>704148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.496</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="G15" s="2">
+        <v>5699</v>
+      </c>
+      <c r="H15" s="2">
+        <v>6026</v>
+      </c>
+      <c r="I15" s="2">
+        <v>8540</v>
+      </c>
+      <c r="J15" s="2">
+        <v>24219</v>
+      </c>
+      <c r="K15" s="2">
+        <v>56274</v>
+      </c>
+      <c r="L15">
+        <v>633</v>
+      </c>
+      <c r="M15">
+        <v>635</v>
+      </c>
+      <c r="N15">
+        <v>21.6</v>
+      </c>
+      <c r="O15" s="2">
+        <v>57632</v>
+      </c>
+      <c r="P15" s="2">
+        <v>70302</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>34781</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="G16" s="2">
+        <v>4552</v>
+      </c>
+      <c r="H16" s="2">
+        <v>5173</v>
+      </c>
+      <c r="I16" s="2">
+        <v>14534</v>
+      </c>
+      <c r="J16" s="2">
+        <v>40068</v>
+      </c>
+      <c r="K16" s="2">
+        <v>60905</v>
+      </c>
+      <c r="L16">
+        <v>545</v>
+      </c>
+      <c r="M16">
+        <v>537</v>
+      </c>
+      <c r="N16">
+        <v>23.6</v>
+      </c>
+      <c r="O16" s="2">
+        <v>65348</v>
+      </c>
+      <c r="P16" s="2">
+        <v>92433</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>1951088</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="G17" s="2">
+        <v>6483</v>
+      </c>
+      <c r="H17" s="2">
+        <v>3382</v>
+      </c>
+      <c r="I17" s="2">
+        <v>8737</v>
+      </c>
+      <c r="J17" s="2">
+        <v>21316</v>
+      </c>
+      <c r="K17" s="2">
+        <v>58218</v>
+      </c>
+      <c r="L17">
+        <v>618</v>
+      </c>
+      <c r="M17">
+        <v>623</v>
+      </c>
+      <c r="N17">
+        <v>21.2</v>
+      </c>
+      <c r="O17" s="2">
+        <v>55222</v>
+      </c>
+      <c r="P17" s="2">
+        <v>77128</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>187334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.307</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="G18" s="2">
+        <v>5768</v>
+      </c>
+      <c r="H18" s="2">
+        <v>4923</v>
+      </c>
+      <c r="I18" s="2">
+        <v>8766</v>
+      </c>
+      <c r="J18" s="2">
+        <v>27991</v>
+      </c>
+      <c r="K18" s="2">
+        <v>59955</v>
+      </c>
+      <c r="L18">
+        <v>622</v>
+      </c>
+      <c r="M18">
+        <v>622</v>
+      </c>
+      <c r="N18">
+        <v>21.6</v>
+      </c>
+      <c r="O18" s="2">
+        <v>61090</v>
+      </c>
+      <c r="P18" s="2">
+        <v>91799</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>260111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.193</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="G19" s="2">
+        <v>3065</v>
+      </c>
+      <c r="H19" s="2">
+        <v>7337</v>
+      </c>
+      <c r="I19" s="2">
+        <v>15949</v>
+      </c>
+      <c r="J19" s="2">
+        <v>33322</v>
+      </c>
+      <c r="K19" s="2">
+        <v>74991</v>
+      </c>
+      <c r="L19">
+        <v>533</v>
+      </c>
+      <c r="M19">
+        <v>526</v>
+      </c>
+      <c r="N19">
+        <v>25</v>
+      </c>
+      <c r="O19" s="2">
+        <v>63729</v>
+      </c>
+      <c r="P19" s="2">
+        <v>95083</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>154242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.222</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="G20" s="2">
+        <v>6189</v>
+      </c>
+      <c r="H20" s="2">
+        <v>4337</v>
+      </c>
+      <c r="I20" s="2">
+        <v>8475</v>
+      </c>
+      <c r="J20" s="2">
+        <v>33156</v>
+      </c>
+      <c r="K20" s="2">
+        <v>60773</v>
+      </c>
+      <c r="L20">
+        <v>635</v>
+      </c>
+      <c r="M20">
+        <v>648</v>
+      </c>
+      <c r="N20">
+        <v>20.3</v>
+      </c>
+      <c r="O20" s="2">
+        <v>81069</v>
+      </c>
+      <c r="P20" s="2">
+        <v>78251</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>575811</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="G21" s="2">
+        <v>7208</v>
+      </c>
+      <c r="H21" s="2">
+        <v>3781</v>
+      </c>
+      <c r="I21" s="2">
+        <v>6557</v>
+      </c>
+      <c r="J21" s="2">
+        <v>7548</v>
+      </c>
+      <c r="K21" s="2">
+        <v>71414</v>
+      </c>
+      <c r="L21">
+        <v>614</v>
+      </c>
+      <c r="M21">
+        <v>615</v>
+      </c>
+      <c r="N21">
+        <v>20.3</v>
+      </c>
+      <c r="O21" s="2">
+        <v>58729</v>
+      </c>
+      <c r="P21" s="2">
+        <v>78057</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>306057</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.308</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="G22" s="2">
+        <v>6477</v>
+      </c>
+      <c r="H22" s="2">
+        <v>4564</v>
+      </c>
+      <c r="I22" s="2">
+        <v>12239</v>
+      </c>
+      <c r="J22" s="2">
+        <v>40361</v>
+      </c>
+      <c r="K22" s="2">
+        <v>64340</v>
+      </c>
+      <c r="L22">
+        <v>503</v>
+      </c>
+      <c r="M22">
+        <v>492</v>
+      </c>
+      <c r="N22">
+        <v>24.7</v>
+      </c>
+      <c r="O22" s="2">
+        <v>60300</v>
+      </c>
+      <c r="P22" s="2">
+        <v>85340</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>162532</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.218</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="G23" s="2">
+        <v>7866</v>
+      </c>
+      <c r="H23" s="2">
+        <v>3698</v>
+      </c>
+      <c r="I23" s="2">
+        <v>9664</v>
+      </c>
+      <c r="J23" s="2">
+        <v>37043</v>
+      </c>
+      <c r="K23" s="2">
+        <v>55602</v>
+      </c>
+      <c r="L23">
+        <v>512</v>
+      </c>
+      <c r="M23">
+        <v>502</v>
+      </c>
+      <c r="N23">
+        <v>24.3</v>
+      </c>
+      <c r="O23" s="2">
+        <v>56997</v>
+      </c>
+      <c r="P23" s="2">
+        <v>77163</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>28270</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="G24" s="2">
+        <v>7853</v>
+      </c>
+      <c r="H24" s="2">
+        <v>3243</v>
+      </c>
+      <c r="I24" s="2">
+        <v>9037</v>
+      </c>
+      <c r="J24" s="2">
+        <v>30731</v>
+      </c>
+      <c r="K24" s="2">
+        <v>61937</v>
+      </c>
+      <c r="L24">
+        <v>531</v>
+      </c>
+      <c r="M24">
+        <v>528</v>
+      </c>
+      <c r="N24">
+        <v>20.7</v>
+      </c>
+      <c r="O24" s="2">
+        <v>67664</v>
+      </c>
+      <c r="P24" s="2">
+        <v>85803</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>29796361</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="G25" s="2">
+        <v>10703</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1268</v>
+      </c>
+      <c r="I25" s="2">
+        <v>8020</v>
+      </c>
+      <c r="J25" s="2">
+        <v>33483</v>
+      </c>
+      <c r="K25" s="2">
+        <v>75277</v>
+      </c>
+      <c r="L25">
+        <v>534</v>
+      </c>
+      <c r="M25">
+        <v>531</v>
+      </c>
+      <c r="N25">
+        <v>22.6</v>
+      </c>
+      <c r="O25" s="2">
+        <v>90371</v>
+      </c>
+      <c r="P25" s="2">
+        <v>105487</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>4100017</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.624</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.255</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="G26" s="2">
+        <v>6807</v>
+      </c>
+      <c r="H26" s="2">
+        <v>4487</v>
+      </c>
+      <c r="I26" s="2">
+        <v>10363</v>
+      </c>
+      <c r="J26" s="2">
+        <v>38674</v>
+      </c>
+      <c r="K26" s="2">
+        <v>63426</v>
+      </c>
+      <c r="L26">
+        <v>562</v>
+      </c>
+      <c r="M26">
+        <v>550</v>
+      </c>
+      <c r="N26">
+        <v>21.1</v>
+      </c>
+      <c r="O26" s="2">
+        <v>70964</v>
+      </c>
+      <c r="P26" s="2">
+        <v>81099</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>377541</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="G27" s="2">
+        <v>9018</v>
+      </c>
+      <c r="H27" s="2">
+        <v>2499</v>
+      </c>
+      <c r="I27" s="2">
+        <v>7354</v>
+      </c>
+      <c r="J27" s="2">
+        <v>32140</v>
+      </c>
+      <c r="K27" s="2">
+        <v>53855</v>
+      </c>
+      <c r="L27">
+        <v>554</v>
+      </c>
+      <c r="M27">
+        <v>546</v>
+      </c>
+      <c r="N27">
+        <v>19</v>
+      </c>
+      <c r="O27" s="2">
+        <v>50389</v>
+      </c>
+      <c r="P27" s="2">
+        <v>84940</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>1219225</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.311</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.247</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.442</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="G28" s="2">
+        <v>5911</v>
+      </c>
+      <c r="H28" s="2">
+        <v>3273</v>
+      </c>
+      <c r="I28" s="2">
+        <v>8387</v>
+      </c>
+      <c r="J28" s="2">
+        <v>24615</v>
+      </c>
+      <c r="K28" s="2">
+        <v>54478</v>
+      </c>
+      <c r="L28">
+        <v>622</v>
+      </c>
+      <c r="M28">
+        <v>614</v>
+      </c>
+      <c r="N28">
+        <v>20.8</v>
+      </c>
+      <c r="O28" s="2">
+        <v>59053</v>
+      </c>
+      <c r="P28" s="2">
+        <v>74008</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>592123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.222</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="G29" s="2">
+        <v>5698</v>
+      </c>
+      <c r="H29" s="2">
+        <v>3672</v>
+      </c>
+      <c r="I29" s="2">
+        <v>10026</v>
+      </c>
+      <c r="J29" s="2">
+        <v>31242</v>
+      </c>
+      <c r="K29" s="2">
+        <v>56111</v>
+      </c>
+      <c r="L29">
+        <v>550</v>
+      </c>
+      <c r="M29">
+        <v>548</v>
+      </c>
+      <c r="N29">
+        <v>20</v>
+      </c>
+      <c r="O29" s="2">
+        <v>62661</v>
+      </c>
+      <c r="P29" s="2">
+        <v>85964</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>773718</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.626</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.315</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="G30" s="2">
+        <v>6150</v>
+      </c>
+      <c r="H30" s="2">
+        <v>3469</v>
+      </c>
+      <c r="I30" s="2">
+        <v>12435</v>
+      </c>
+      <c r="J30" s="2">
+        <v>26964</v>
+      </c>
+      <c r="K30" s="2">
+        <v>56697</v>
+      </c>
+      <c r="L30">
+        <v>507</v>
+      </c>
+      <c r="M30">
+        <v>496</v>
+      </c>
+      <c r="N30">
+        <v>24.4</v>
+      </c>
+      <c r="O30" s="2">
+        <v>77174</v>
+      </c>
+      <c r="P30" s="2">
+        <v>97004</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>959249</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="G31" s="2">
+        <v>16937</v>
+      </c>
+      <c r="H31" s="2">
+        <v>3080</v>
+      </c>
+      <c r="I31" s="2">
+        <v>9709</v>
+      </c>
+      <c r="J31" s="2">
+        <v>16447</v>
+      </c>
+      <c r="K31" s="2">
+        <v>80212</v>
+      </c>
+      <c r="L31">
+        <v>550</v>
+      </c>
+      <c r="M31">
+        <v>550</v>
+      </c>
+      <c r="N31">
+        <v>19</v>
+      </c>
+      <c r="O31" s="2">
+        <v>73639</v>
+      </c>
+      <c r="P31" s="2">
+        <v>97072</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>133213</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.312</v>
+      </c>
+      <c r="G32" s="2">
+        <v>7207</v>
+      </c>
+      <c r="H32" s="2">
+        <v>2506</v>
+      </c>
+      <c r="I32" s="2">
+        <v>4455</v>
+      </c>
+      <c r="J32" s="2">
+        <v>25531</v>
+      </c>
+      <c r="K32" s="2">
+        <v>55462</v>
+      </c>
+      <c r="L32">
+        <v>516</v>
+      </c>
+      <c r="M32">
+        <v>483</v>
+      </c>
+      <c r="N32">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="O32" s="2">
+        <v>55301</v>
+      </c>
+      <c r="P32" s="2">
+        <v>78410</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>780180</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.252</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.308</v>
+      </c>
+      <c r="G33" s="2">
+        <v>5879</v>
+      </c>
+      <c r="H33" s="2">
+        <v>3631</v>
+      </c>
+      <c r="I33" s="2">
+        <v>6783</v>
+      </c>
+      <c r="J33" s="2">
+        <v>24953</v>
+      </c>
+      <c r="K33" s="2">
+        <v>55328</v>
+      </c>
+      <c r="L33">
+        <v>603</v>
+      </c>
+      <c r="M33">
+        <v>596</v>
+      </c>
+      <c r="N33">
+        <v>19.8</v>
+      </c>
+      <c r="O33" s="2">
+        <v>47608</v>
+      </c>
+      <c r="P33" s="2">
+        <v>70842</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>82327</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="G34" s="2">
+        <v>5840</v>
+      </c>
+      <c r="H34" s="2">
+        <v>4502</v>
+      </c>
+      <c r="I34" s="2">
+        <v>12579</v>
+      </c>
+      <c r="J34" s="2">
+        <v>24931</v>
+      </c>
+      <c r="K34" s="2">
+        <v>52306</v>
+      </c>
+      <c r="L34">
+        <v>526</v>
+      </c>
+      <c r="M34">
+        <v>504</v>
+      </c>
+      <c r="N34">
+        <v>18.8</v>
+      </c>
+      <c r="O34" s="2">
+        <v>49874</v>
+      </c>
+      <c r="P34" s="2">
+        <v>81575</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>242583</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.379</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="G35" s="2">
+        <v>6300</v>
+      </c>
+      <c r="H35" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35" s="2">
+        <v>9999</v>
+      </c>
+      <c r="J35" s="2">
+        <v>15096</v>
+      </c>
+      <c r="K35" s="2">
+        <v>64805</v>
+      </c>
+      <c r="L35">
+        <v>499</v>
+      </c>
+      <c r="M35">
+        <v>486</v>
+      </c>
+      <c r="N35">
+        <v>24</v>
+      </c>
+      <c r="O35" t="s">
+        <v>4</v>
+      </c>
+      <c r="P35" s="2">
+        <v>99900</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>123061</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="G36" s="2">
+        <v>8574</v>
+      </c>
+      <c r="H36" s="2">
+        <v>2901</v>
+      </c>
+      <c r="I36" s="2">
+        <v>7206</v>
+      </c>
+      <c r="J36" s="2">
+        <v>27813</v>
+      </c>
+      <c r="K36" s="2">
+        <v>58756</v>
+      </c>
+      <c r="L36">
+        <v>538</v>
+      </c>
+      <c r="M36">
+        <v>519</v>
+      </c>
+      <c r="N36">
+        <v>21.4</v>
+      </c>
+      <c r="O36" s="2">
+        <v>48049</v>
+      </c>
+      <c r="P36" s="2">
+        <v>75161</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>1030375</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.379</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.224</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="G37" s="2">
+        <v>6435</v>
+      </c>
+      <c r="H37" s="2">
+        <v>4255</v>
+      </c>
+      <c r="I37" s="2">
+        <v>9038</v>
+      </c>
+      <c r="J37" s="2">
+        <v>32338</v>
+      </c>
+      <c r="K37" s="2">
+        <v>55746</v>
+      </c>
+      <c r="L37">
+        <v>543</v>
+      </c>
+      <c r="M37">
+        <v>537</v>
+      </c>
+      <c r="N37">
+        <v>22.5</v>
+      </c>
+      <c r="O37" s="2">
+        <v>50700</v>
+      </c>
+      <c r="P37" s="2">
+        <v>85784</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0.313</v>
+      </c>
+      <c r="G38" s="2">
+        <v>7232</v>
+      </c>
+      <c r="H38" s="2">
+        <v>2209</v>
+      </c>
+      <c r="I38" s="2">
+        <v>8645</v>
+      </c>
+      <c r="J38" s="2">
+        <v>32482</v>
+      </c>
+      <c r="K38" s="2">
+        <v>60629</v>
+      </c>
+      <c r="L38">
+        <v>515</v>
+      </c>
+      <c r="M38">
+        <v>507</v>
+      </c>
+      <c r="N38">
+        <v>20.5</v>
+      </c>
+      <c r="O38" s="2">
+        <v>60550</v>
+      </c>
+      <c r="P38" s="2">
+        <v>84195</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>1603066</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.371</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="G39" s="2">
+        <v>6781</v>
+      </c>
+      <c r="H39" s="2">
+        <v>4106</v>
+      </c>
+      <c r="I39" s="2">
+        <v>10365</v>
+      </c>
+      <c r="J39" s="2">
+        <v>26719</v>
+      </c>
+      <c r="K39" s="2">
+        <v>50247</v>
+      </c>
+      <c r="L39">
+        <v>620</v>
+      </c>
+      <c r="M39">
+        <v>612</v>
+      </c>
+      <c r="N39">
+        <v>19.8</v>
+      </c>
+      <c r="O39" s="2">
+        <v>51747</v>
+      </c>
+      <c r="P39" s="2">
+        <v>74047</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>214257</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="G40" s="2">
+        <v>15726</v>
+      </c>
+      <c r="H40" s="2">
+        <v>3142</v>
+      </c>
+      <c r="I40" s="2">
+        <v>4443</v>
+      </c>
+      <c r="J40" t="s">
+        <v>4</v>
+      </c>
+      <c r="K40" s="2">
+        <v>61584</v>
+      </c>
+      <c r="L40">
+        <v>623</v>
+      </c>
+      <c r="M40">
+        <v>615</v>
+      </c>
+      <c r="N40">
+        <v>19.8</v>
+      </c>
+      <c r="O40" s="2">
+        <v>58474</v>
+      </c>
+      <c r="P40" s="2">
+        <v>85854</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>27495</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0.314</v>
+      </c>
+      <c r="G41" s="2">
+        <v>7723</v>
+      </c>
+      <c r="H41" s="2">
+        <v>4148</v>
+      </c>
+      <c r="I41" s="2">
+        <v>9574</v>
+      </c>
+      <c r="J41" s="2">
+        <v>26939</v>
+      </c>
+      <c r="K41" s="2">
+        <v>52375</v>
+      </c>
+      <c r="L41">
+        <v>618</v>
+      </c>
+      <c r="M41">
+        <v>602</v>
+      </c>
+      <c r="N41">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="O41" s="2">
+        <v>52090</v>
+      </c>
+      <c r="P41" s="2">
+        <v>76588</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>541610</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0.502</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="G42" s="2">
+        <v>5326</v>
+      </c>
+      <c r="H42" s="2">
+        <v>2152</v>
+      </c>
+      <c r="I42" s="2">
+        <v>10557</v>
+      </c>
+      <c r="J42" s="2">
+        <v>13487</v>
+      </c>
+      <c r="K42" s="2">
+        <v>59246</v>
+      </c>
+      <c r="L42">
+        <v>569</v>
+      </c>
+      <c r="M42">
+        <v>565</v>
+      </c>
+      <c r="N42">
+        <v>19</v>
+      </c>
+      <c r="O42" s="2">
+        <v>68099</v>
+      </c>
+      <c r="P42" s="2">
+        <v>87692</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>370209</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.377</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0.373</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0.249</v>
+      </c>
+      <c r="G43" s="2">
+        <v>5301</v>
+      </c>
+      <c r="H43" s="2">
+        <v>3182</v>
+      </c>
+      <c r="I43" s="2">
+        <v>7980</v>
+      </c>
+      <c r="J43" s="2">
+        <v>17625</v>
+      </c>
+      <c r="K43" s="2">
+        <v>44717</v>
+      </c>
+      <c r="L43">
+        <v>628</v>
+      </c>
+      <c r="M43">
+        <v>608</v>
+      </c>
+      <c r="N43">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="O43" s="2">
+        <v>53663</v>
+      </c>
+      <c r="P43" s="2">
+        <v>68743</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>150808</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.251</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="G44" s="2">
+        <v>8513</v>
+      </c>
+      <c r="H44" s="2">
+        <v>3282</v>
+      </c>
+      <c r="I44" s="2">
+        <v>7247</v>
+      </c>
+      <c r="J44" s="2">
+        <v>5833</v>
+      </c>
+      <c r="K44" s="2">
+        <v>55583</v>
+      </c>
+      <c r="L44">
+        <v>505</v>
+      </c>
+      <c r="M44">
+        <v>488</v>
+      </c>
+      <c r="N44">
+        <v>22.5</v>
+      </c>
+      <c r="O44" s="2">
+        <v>53549</v>
+      </c>
+      <c r="P44" s="2">
+        <v>68779</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>46921</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.252</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="G45" s="2">
+        <v>5758</v>
+      </c>
+      <c r="H45" s="2">
+        <v>4403</v>
+      </c>
+      <c r="I45" s="2">
+        <v>9827</v>
+      </c>
+      <c r="J45" s="2">
+        <v>16321</v>
+      </c>
+      <c r="K45" s="2">
+        <v>49861</v>
+      </c>
+      <c r="L45">
+        <v>583</v>
+      </c>
+      <c r="M45">
+        <v>560</v>
+      </c>
+      <c r="N45">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="O45" s="2">
+        <v>54657</v>
+      </c>
+      <c r="P45" s="2">
+        <v>78816</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>362466</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.501</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G46" s="2">
+        <v>5339</v>
+      </c>
+      <c r="H46" s="2">
+        <v>4093</v>
+      </c>
+      <c r="I46" s="2">
+        <v>9165</v>
+      </c>
+      <c r="J46" s="2">
+        <v>36715</v>
+      </c>
+      <c r="K46" s="2">
+        <v>47905</v>
+      </c>
+      <c r="L46">
+        <v>610</v>
+      </c>
+      <c r="M46">
+        <v>591</v>
+      </c>
+      <c r="N46">
+        <v>18.8</v>
+      </c>
+      <c r="O46" s="2">
+        <v>44184</v>
+      </c>
+      <c r="P46" s="2">
+        <v>67713</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>179662</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.253</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="G47" s="2">
+        <v>6698</v>
+      </c>
+      <c r="H47" s="2">
+        <v>3291</v>
+      </c>
+      <c r="I47" s="2">
+        <v>8187</v>
+      </c>
+      <c r="J47" s="2">
+        <v>22610</v>
+      </c>
+      <c r="K47" s="2">
+        <v>47062</v>
+      </c>
+      <c r="L47">
+        <v>582</v>
+      </c>
+      <c r="M47">
+        <v>559</v>
+      </c>
+      <c r="N47">
+        <v>19.3</v>
+      </c>
+      <c r="O47" s="2">
+        <v>45629</v>
+      </c>
+      <c r="P47" s="2">
+        <v>67518</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>66975</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0.497</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="G48" s="2">
+        <v>5542</v>
+      </c>
+      <c r="H48" s="2">
+        <v>3876</v>
+      </c>
+      <c r="I48" s="2">
+        <v>7623</v>
+      </c>
+      <c r="J48" s="2">
+        <v>26240</v>
+      </c>
+      <c r="K48" s="2">
+        <v>51924</v>
+      </c>
+      <c r="L48">
+        <v>490</v>
+      </c>
+      <c r="M48">
+        <v>472</v>
+      </c>
+      <c r="N48">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="O48" s="2">
+        <v>49003</v>
+      </c>
+      <c r="P48" s="2">
+        <v>72865</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>131089</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.315</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.373</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="G49" s="2">
+        <v>17704</v>
+      </c>
+      <c r="H49" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="2">
+        <v>7221</v>
+      </c>
+      <c r="J49" s="2">
+        <v>19360</v>
+      </c>
+      <c r="K49" s="2">
+        <v>74346</v>
+      </c>
+      <c r="L49">
+        <v>556</v>
+      </c>
+      <c r="M49">
+        <v>541</v>
+      </c>
+      <c r="N49">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="O49" s="2">
+        <v>81319</v>
+      </c>
+      <c r="P49" s="2">
+        <v>82627</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>80761</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.218</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="G50" s="2">
+        <v>4712</v>
+      </c>
+      <c r="H50" s="2">
+        <v>4077</v>
+      </c>
+      <c r="I50" s="2">
+        <v>7619</v>
+      </c>
+      <c r="J50" s="2">
+        <v>12341</v>
+      </c>
+      <c r="K50" s="2">
+        <v>44097</v>
+      </c>
+      <c r="L50">
+        <v>483</v>
+      </c>
+      <c r="M50">
+        <v>460</v>
+      </c>
+      <c r="N50">
+        <v>20.8</v>
+      </c>
+      <c r="O50" s="2">
+        <v>48640</v>
+      </c>
+      <c r="P50" s="2">
+        <v>68637</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>44533</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0.316</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="G51" s="2">
+        <v>7600</v>
+      </c>
+      <c r="H51" s="2">
+        <v>3075</v>
+      </c>
+      <c r="I51" s="2">
+        <v>5920</v>
+      </c>
+      <c r="J51" s="2">
+        <v>23261</v>
+      </c>
+      <c r="K51" s="2">
+        <v>58646</v>
+      </c>
+      <c r="L51">
+        <v>580</v>
+      </c>
+      <c r="M51">
+        <v>576</v>
+      </c>
+      <c r="N51">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="O51" s="2">
+        <v>73906</v>
+      </c>
+      <c r="P51" s="2">
+        <v>84182</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>57360</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0.311</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="G52" s="2">
+        <v>10129</v>
+      </c>
+      <c r="H52" s="2">
+        <v>1666</v>
+      </c>
+      <c r="I52" s="2">
+        <v>6718</v>
+      </c>
+      <c r="J52" s="2">
+        <v>23865</v>
+      </c>
+      <c r="K52" s="2">
+        <v>47169</v>
+      </c>
+      <c r="L52">
+        <v>543</v>
+      </c>
+      <c r="M52">
+        <v>530</v>
+      </c>
+      <c r="N52">
+        <v>19.3</v>
+      </c>
+      <c r="O52" s="2">
+        <v>52632</v>
+      </c>
+      <c r="P52" s="2">
+        <v>72481</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>163172</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F7D7EC-F1EA-439E-9C89-0007EA8C3FA4}">
+  <dimension ref="A1:B52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B52" sqref="A1:B52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0.59599999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="8">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0.54800000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.53900000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0.51700000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0.51600000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="8">
+        <v>0.51600000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0.51200000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="8">
+        <v>0.50800000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0.50600000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0.504</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0.498</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="8">
+        <v>0.496</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0.48799999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="8">
+        <v>0.48599999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0.48299999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="8">
+        <v>0.48199999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0.47799999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="8">
+        <v>0.47599999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0.47199999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="8">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0.45300000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="8">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="7">
+        <v>0.44800000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="8">
+        <v>0.44500000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="7">
+        <v>0.442</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="8">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7">
+        <v>0.42899999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="8">
+        <v>0.42699999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="7">
+        <v>0.42499999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="8">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="7">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="8">
+        <v>0.41899999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="7">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="8">
+        <v>0.39600000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="7">
+        <v>0.39100000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="8">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="7">
+        <v>0.38900000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="8">
+        <v>0.38600000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="7">
+        <v>0.38100000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="8">
+        <v>0.373</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="7">
+        <v>0.36799999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="8">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" s="7">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="8">
+        <v>0.34899999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" s="7">
+        <v>0.34699999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" s="8">
+        <v>0.34300000000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="7">
+        <v>0.33500000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51" s="8">
+        <v>0.316</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" s="7">
+        <v>0.311</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/education/Percent of population age 25-34 with a postsecondary credential/HigherEdAlmanac_2020_Data.xlsx
+++ b/education/Percent of population age 25-34 with a postsecondary credential/HigherEdAlmanac_2020_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\jupyter\texas_2036\indicators\education\Percent of population age 25-34 with a postsecondary credential\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12796958-957C-4EF1-B0AD-F3E192A37BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA4009B-57CE-491C-BBF8-44FBC8B8C125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{1965F602-3F8C-4E19-9715-2DA7B6AF5C49}"/>
   </bookViews>
@@ -280,7 +280,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,6 +296,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
@@ -336,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -346,14 +352,13 @@
     <xf numFmtId="10" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="28">
-    <dxf>
-      <numFmt numFmtId="10" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="10" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     </dxf>
@@ -392,6 +397,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="10" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="10" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
@@ -478,29 +486,29 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4A8884AC-E38C-4315-9C0A-04583317154A}" name="Table2" displayName="Table2" ref="A1:Q52" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4A8884AC-E38C-4315-9C0A-04583317154A}" name="Table2" displayName="Table2" ref="A1:Q52" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="A1:Q52" xr:uid="{4A8884AC-E38C-4315-9C0A-04583317154A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q52">
     <sortCondition descending="1" ref="E1:E52"/>
   </sortState>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{3A24A7F4-321A-4064-9169-8DDC3566DFB9}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{1992D644-803F-4D17-9F07-F6CD98FE66FF}" name="Column2" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{B93F6F49-38F5-4FED-844E-FEE4AA04A59D}" name="Column3" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{B770C52F-F256-4840-B646-9AC631A0FF41}" name="Column4" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{C618E791-B937-4333-8582-A0E0AB0483FE}" name="Column5" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{1E49D6F6-C81A-4289-A61E-03F81EDC3ED8}" name="Column6" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{6A2E640C-8D24-49A5-8705-8AFD97BD6A7C}" name="Column7" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{0A1AEA5F-4ABE-42D3-A8C0-A78E4987EF54}" name="Column8" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{098BF98D-2116-42BB-839E-31A0E4AF53D9}" name="Column9" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{6246D802-42B8-4CE9-812D-CB79D5C63366}" name="Column10" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{3411FBC6-443B-4A40-81B1-B9B315B20E94}" name="Column11" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{1992D644-803F-4D17-9F07-F6CD98FE66FF}" name="Column2" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{B93F6F49-38F5-4FED-844E-FEE4AA04A59D}" name="Column3" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{B770C52F-F256-4840-B646-9AC631A0FF41}" name="Column4" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{C618E791-B937-4333-8582-A0E0AB0483FE}" name="Column5" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{1E49D6F6-C81A-4289-A61E-03F81EDC3ED8}" name="Column6" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{6A2E640C-8D24-49A5-8705-8AFD97BD6A7C}" name="Column7" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{0A1AEA5F-4ABE-42D3-A8C0-A78E4987EF54}" name="Column8" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{098BF98D-2116-42BB-839E-31A0E4AF53D9}" name="Column9" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{6246D802-42B8-4CE9-812D-CB79D5C63366}" name="Column10" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{3411FBC6-443B-4A40-81B1-B9B315B20E94}" name="Column11" dataDxfId="3"/>
     <tableColumn id="12" xr3:uid="{EA84BCE3-72F9-4AF7-A426-1F0491C47FE3}" name="Column12"/>
     <tableColumn id="13" xr3:uid="{10580DEC-1D06-4947-86C6-5E180EEE13AF}" name="Column13"/>
     <tableColumn id="14" xr3:uid="{55A042A4-9058-40F8-A61C-18EBEC142C24}" name="Column14"/>
-    <tableColumn id="15" xr3:uid="{3C0054F7-58B3-44FC-8C98-0D41EB72B4D2}" name="Column15" dataDxfId="3"/>
-    <tableColumn id="16" xr3:uid="{ED3583BF-36BC-4E08-9BBC-8EE30095AAE6}" name="Column16" dataDxfId="2"/>
-    <tableColumn id="17" xr3:uid="{6F22E7E7-36D5-412A-A833-1C6B81B6F419}" name="Column17" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{3C0054F7-58B3-44FC-8C98-0D41EB72B4D2}" name="Column15" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{ED3583BF-36BC-4E08-9BBC-8EE30095AAE6}" name="Column16" dataDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{6F22E7E7-36D5-412A-A833-1C6B81B6F419}" name="Column17" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6200,7 +6208,7 @@
   <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9393,14 +9401,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F7D7EC-F1EA-439E-9C89-0007EA8C3FA4}">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B52" sqref="A1:B52"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -9700,10 +9708,10 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="10">
         <v>0.39100000000000001</v>
       </c>
     </row>
